--- a/design/ssd1306_design.xlsx
+++ b/design/ssd1306_design.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
   <si>
     <t>m</t>
   </si>
@@ -69,12 +69,6 @@
     <t>:</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
@@ -102,20 +96,17 @@
     <t>X</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>o</t>
+    <t>s</t>
+  </si>
+  <si>
+    <t>K</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,8 +136,15 @@
       <family val="3"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,6 +163,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -335,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -373,9 +377,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -394,6 +395,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -698,7 +718,7 @@
   <dimension ref="C1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -783,12 +803,18 @@
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="15"/>
+      <c r="R3" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="19"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="14"/>
     </row>
     <row r="4" spans="3:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="11">
@@ -836,25 +862,29 @@
       <c r="Q4" s="12">
         <v>5</v>
       </c>
-      <c r="R4" s="16"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="2"/>
+      <c r="R4" s="21">
+        <v>3</v>
+      </c>
+      <c r="S4" s="10">
+        <v>7</v>
+      </c>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="23"/>
     </row>
     <row r="5" spans="3:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>21</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>11</v>
@@ -877,7 +907,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="16"/>
+      <c r="R5" s="15"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -930,116 +960,106 @@
       <c r="Q6" s="12">
         <v>5</v>
       </c>
-      <c r="R6" s="16"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="3:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="9" t="s">
-        <v>29</v>
+      <c r="C7" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>0</v>
+      </c>
       <c r="L7" s="10" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N7" s="10" t="s">
         <v>16</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="P7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="R7" s="16"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="U7" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="V7" s="22"/>
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="3:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O8" s="10">
-        <v>9</v>
-      </c>
-      <c r="P8" s="10">
-        <v>9</v>
-      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="3:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="16"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
